--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-0.1/percents/scores-5.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-0.1/percents/scores-5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,9 +58,6 @@
     <t>evil</t>
   </si>
   <si>
-    <t>annoying</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -70,13 +67,7 @@
     <t>fucked</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>scary</t>
   </si>
   <si>
     <t>destroying</t>
@@ -85,9 +76,6 @@
     <t>creepy</t>
   </si>
   <si>
-    <t>frustrating</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
@@ -97,28 +85,31 @@
     <t>addicted</t>
   </si>
   <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>0.95-negative</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>excellent</t>
@@ -127,34 +118,22 @@
     <t>relevant</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>solid</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>inspired</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>society</t>
-  </si>
-  <si>
-    <t>netflix</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -533,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS21"/>
+  <dimension ref="A1:BS18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,28 +520,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AB1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AT1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="BC1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="BL1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -764,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02069610201195225</v>
+        <v>0.02078704630129214</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -785,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>0.01033117144005051</v>
+        <v>0.01149648387952215</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -806,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.02453599275349449</v>
+        <v>0.02464406817482594</v>
       </c>
       <c r="U3">
         <v>17</v>
@@ -833,16 +812,16 @@
         <v>0</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AC3">
-        <v>0.01226826608505998</v>
+        <v>0.01348987737509865</v>
       </c>
       <c r="AD3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -854,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.03014814076036391</v>
+        <v>0.03028125398999073</v>
       </c>
       <c r="AM3">
         <v>17</v>
@@ -881,16 +860,16 @@
         <v>0</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AU3">
-        <v>0.1292045575209715</v>
+        <v>0.01640329863786429</v>
       </c>
       <c r="AV3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -902,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.03912757757135499</v>
+        <v>0.03930075129425438</v>
       </c>
       <c r="BE3">
         <v>17</v>
@@ -929,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BM3">
-        <v>0.1141293202719544</v>
+        <v>0.02106477265828932</v>
       </c>
       <c r="BN3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BO3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -950,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -958,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.004590263645544425</v>
+        <v>0.004610490752155859</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -979,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.01027414914433288</v>
+        <v>0.009222228079760501</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1000,13 +979,13 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.005410309693385195</v>
+        <v>0.005434408460226604</v>
       </c>
       <c r="U4">
         <v>3</v>
@@ -1027,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC4">
-        <v>0.01199741018040126</v>
+        <v>0.01091084653675712</v>
       </c>
       <c r="AD4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1048,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.006608838532537092</v>
+        <v>0.006638595879714617</v>
       </c>
       <c r="AM4">
         <v>3</v>
@@ -1075,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AU4">
-        <v>0.1246115749172061</v>
+        <v>0.0133788273585214</v>
       </c>
       <c r="AV4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1096,13 +1075,13 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.008526484675180126</v>
+        <v>0.008565295750895438</v>
       </c>
       <c r="BE4">
         <v>3</v>
@@ -1123,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BM4">
-        <v>0.108963134730964</v>
+        <v>0.01732759667334426</v>
       </c>
       <c r="BN4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BO4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1144,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1152,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.004544645808970325</v>
+        <v>0.004564961704623532</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1173,10 +1152,10 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.006876043167556814</v>
+        <v>0.006913825494349606</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -1200,7 +1179,7 @@
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.005193624969658217</v>
+        <v>0.005218145484448057</v>
       </c>
       <c r="U5">
         <v>3</v>
@@ -1221,10 +1200,10 @@
         <v>4</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC5">
-        <v>0.008124672875774907</v>
+        <v>0.008169618466581678</v>
       </c>
       <c r="AD5">
         <v>5</v>
@@ -1248,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.006142132973740526</v>
+        <v>0.006172798701114671</v>
       </c>
       <c r="AM5">
         <v>3</v>
@@ -1269,10 +1248,10 @@
         <v>4</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AU5">
-        <v>0.08865994813271182</v>
+        <v>0.01000500819522855</v>
       </c>
       <c r="AV5">
         <v>5</v>
@@ -1296,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.007659745780272217</v>
+        <v>0.007700243847781251</v>
       </c>
       <c r="BE5">
         <v>3</v>
@@ -1317,10 +1296,10 @@
         <v>4</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BM5">
-        <v>0.08189615347345698</v>
+        <v>0.01294163176106356</v>
       </c>
       <c r="BN5">
         <v>5</v>
@@ -1346,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003439846619372437</v>
+        <v>0.003455022498646123</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1367,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.005728135229773424</v>
+        <v>0.005759624201644158</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -1394,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.00404418947480596</v>
+        <v>0.004062289909183794</v>
       </c>
       <c r="U6">
         <v>2</v>
@@ -1415,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AC6">
-        <v>0.006761532199657133</v>
+        <v>0.006799004431493959</v>
       </c>
       <c r="AD6">
         <v>4</v>
@@ -1442,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.004927459801978034</v>
+        <v>0.004949834586123466</v>
       </c>
       <c r="AM6">
         <v>2</v>
@@ -1463,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AU6">
-        <v>0.07545127717687629</v>
+        <v>0.008318098613582131</v>
       </c>
       <c r="AV6">
         <v>4</v>
@@ -1490,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.00634069232545335</v>
+        <v>0.006369906069226942</v>
       </c>
       <c r="BE6">
         <v>2</v>
@@ -1511,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BM6">
-        <v>0.07149617691002388</v>
+        <v>0.01074864930492321</v>
       </c>
       <c r="BN6">
         <v>4</v>
@@ -1540,7 +1519,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003439846619372437</v>
+        <v>0.003455022498646123</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1561,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.005705326311486373</v>
+        <v>0.00460542290893871</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1582,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.00404418947480596</v>
+        <v>0.004062289909183794</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1609,16 +1588,16 @@
         <v>0</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC7">
-        <v>0.006653189837793644</v>
+        <v>0.00542839039640624</v>
       </c>
       <c r="AD7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1630,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.004927459801978034</v>
+        <v>0.004949834586123466</v>
       </c>
       <c r="AM7">
         <v>2</v>
@@ -1657,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AU7">
-        <v>0.07361408413537014</v>
+        <v>0.006631189031935708</v>
       </c>
       <c r="AV7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -1678,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.00634069232545335</v>
+        <v>0.006369906069226942</v>
       </c>
       <c r="BE7">
         <v>2</v>
@@ -1705,16 +1684,16 @@
         <v>0</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BM7">
-        <v>0.06942970269362776</v>
+        <v>0.008555666848782856</v>
       </c>
       <c r="BN7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -1726,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1734,7 +1713,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003439846619372437</v>
+        <v>0.003455022498646123</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1755,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.004580227291990035</v>
+        <v>0.004571276123289466</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -1776,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.00404418947480596</v>
+        <v>0.004062289909183794</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1803,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AC8">
-        <v>0.005398391523539357</v>
+        <v>0.005266193164572329</v>
       </c>
       <c r="AD8">
         <v>3</v>
@@ -1824,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004927459801978034</v>
+        <v>0.004949834586123466</v>
       </c>
       <c r="AM8">
         <v>2</v>
@@ -1851,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AU8">
-        <v>0.06224260622104075</v>
+        <v>0.006281841147985748</v>
       </c>
       <c r="AV8">
         <v>3</v>
@@ -1872,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.00634069232545335</v>
+        <v>0.006369906069226942</v>
       </c>
       <c r="BE8">
         <v>2</v>
@@ -1899,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="BM8">
-        <v>0.06109620034659079</v>
+        <v>0.007906877921447217</v>
       </c>
       <c r="BN8">
         <v>3</v>
@@ -1920,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -1928,7 +1907,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.003439846619372437</v>
+        <v>0.003455022498646123</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1949,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.003432319354206644</v>
+        <v>0.003451221616233262</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -1976,7 +1955,7 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.00404418947480596</v>
+        <v>0.004062289909183794</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1997,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AC9">
-        <v>0.004035250847421581</v>
+        <v>0.004057776361318521</v>
       </c>
       <c r="AD9">
         <v>2</v>
@@ -2024,7 +2003,7 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004927459801978034</v>
+        <v>0.004949834586123466</v>
       </c>
       <c r="AM9">
         <v>2</v>
@@ -2045,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AU9">
-        <v>0.04903393526520522</v>
+        <v>0.004944279450289284</v>
       </c>
       <c r="AV9">
         <v>2</v>
@@ -2072,7 +2051,7 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.00634069232545335</v>
+        <v>0.006369906069226942</v>
       </c>
       <c r="BE9">
         <v>2</v>
@@ -2093,10 +2072,10 @@
         <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BM9">
-        <v>0.05069622378315768</v>
+        <v>0.006362684392642506</v>
       </c>
       <c r="BN9">
         <v>2</v>
@@ -2122,7 +2101,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.003439846619372437</v>
+        <v>0.003455022498646123</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2143,10 +2122,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.003432319354206644</v>
+        <v>0.003451221616233262</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -2170,7 +2149,7 @@
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.00404418947480596</v>
+        <v>0.004062289909183794</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -2191,10 +2170,10 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC10">
-        <v>0.004035250847421581</v>
+        <v>0.004057776361318521</v>
       </c>
       <c r="AD10">
         <v>2</v>
@@ -2218,7 +2197,7 @@
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.004927459801978034</v>
+        <v>0.004949834586123466</v>
       </c>
       <c r="AM10">
         <v>2</v>
@@ -2239,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AU10">
-        <v>0.04903393526520522</v>
+        <v>0.004944279450289284</v>
       </c>
       <c r="AV10">
         <v>2</v>
@@ -2266,7 +2245,7 @@
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.00634069232545335</v>
+        <v>0.006369906069226942</v>
       </c>
       <c r="BE10">
         <v>2</v>
@@ -2287,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BM10">
-        <v>0.05069622378315768</v>
+        <v>0.006362684392642506</v>
       </c>
       <c r="BN10">
         <v>2</v>
@@ -2316,13 +2295,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.003439846619372437</v>
+        <v>0.002299554245136388</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2337,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.002284411416423254</v>
+        <v>0.002297020323527814</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -2364,13 +2343,13 @@
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.00404418947480596</v>
+        <v>0.002690171358140984</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2385,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AC11">
-        <v>0.002672110171303806</v>
+        <v>0.002687162326230802</v>
       </c>
       <c r="AD11">
         <v>1</v>
@@ -2412,13 +2391,13 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.004927459801978034</v>
+        <v>0.003261073292532315</v>
       </c>
       <c r="AM11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -2433,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AU11">
-        <v>0.03582526430936969</v>
+        <v>0.003257369868642861</v>
       </c>
       <c r="AV11">
         <v>1</v>
@@ -2460,13 +2439,13 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.00634069232545335</v>
+        <v>0.004174516387558446</v>
       </c>
       <c r="BE11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG11">
         <v>0</v>
@@ -2481,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="BM11">
-        <v>0.04029624721972459</v>
+        <v>0.004169701936502155</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2510,7 +2489,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.00228942959320045</v>
+        <v>0.002299554245136388</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2531,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.002284411416423254</v>
+        <v>0.002297020323527814</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2558,7 +2537,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002678069256226726</v>
+        <v>0.002690171358140984</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -2579,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AC12">
-        <v>0.002672110171303806</v>
+        <v>0.002687162326230802</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -2606,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003246081071418975</v>
+        <v>0.003261073292532315</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -2627,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AU12">
-        <v>0.03582526430936969</v>
+        <v>0.003257369868642861</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -2654,7 +2633,7 @@
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004154899975726574</v>
+        <v>0.004174516387558446</v>
       </c>
       <c r="BE12">
         <v>1</v>
@@ -2675,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="BM12">
-        <v>0.04029624721972459</v>
+        <v>0.004169701936502155</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2704,7 +2683,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00228942959320045</v>
+        <v>0.002299554245136388</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2725,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.002284411416423254</v>
+        <v>0.002285638061644733</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2746,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002678069256226726</v>
+        <v>0.002690171358140984</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -2773,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AC13">
-        <v>0.002672110171303806</v>
+        <v>0.002633096582286165</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2794,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.003246081071418975</v>
+        <v>0.003261073292532315</v>
       </c>
       <c r="AM13">
         <v>1</v>
@@ -2821,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AU13">
-        <v>0.03582526430936969</v>
+        <v>0.003140920573992874</v>
       </c>
       <c r="AV13">
         <v>1</v>
@@ -2842,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.004154899975726574</v>
+        <v>0.004174516387558446</v>
       </c>
       <c r="BE13">
         <v>1</v>
@@ -2869,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="BM13">
-        <v>0.04029624721972459</v>
+        <v>0.003953438960723608</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2890,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2898,7 +2877,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00228942959320045</v>
+        <v>0.002299554245136388</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2919,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.002284411416423254</v>
+        <v>0.002274255799761651</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2940,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002678069256226726</v>
+        <v>0.002690171358140984</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -2967,10 +2946,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AC14">
-        <v>0.002672110171303806</v>
+        <v>0.002579030838341529</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -2988,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.003246081071418975</v>
+        <v>0.003261073292532315</v>
       </c>
       <c r="AM14">
         <v>1</v>
@@ -3015,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AU14">
-        <v>0.03582526430936969</v>
+        <v>0.003024471279342887</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3036,13 +3015,13 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.004154899975726574</v>
+        <v>0.004174516387558446</v>
       </c>
       <c r="BE14">
         <v>1</v>
@@ -3063,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="BM14">
-        <v>0.04029624721972459</v>
+        <v>0.003737175984945061</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3084,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3092,7 +3071,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00228942959320045</v>
+        <v>0.002299554245136388</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -3113,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.002284411416423254</v>
+        <v>0.002274255799761651</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3134,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002678069256226726</v>
+        <v>0.002690171358140984</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -3161,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC15">
-        <v>0.002672110171303806</v>
+        <v>0.002579030838341529</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3182,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.003246081071418975</v>
+        <v>0.003261073292532315</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -3209,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AU15">
-        <v>0.03582526430936969</v>
+        <v>0.003024471279342887</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3230,13 +3209,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.004154899975726574</v>
+        <v>0.004174516387558446</v>
       </c>
       <c r="BE15">
         <v>1</v>
@@ -3257,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BM15">
-        <v>0.04029624721972459</v>
+        <v>0.003737175984945061</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3278,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3286,7 +3265,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00228942959320045</v>
+        <v>0.002299554245136388</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3307,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.002284411416423254</v>
+        <v>0.002251491275995489</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3328,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002678069256226726</v>
+        <v>0.002690171358140984</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -3355,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AC16">
-        <v>0.002672110171303806</v>
+        <v>0.002470899350452255</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3376,13 +3355,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.003246081071418975</v>
+        <v>0.003261073292532315</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3403,10 +3382,10 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AU16">
-        <v>0.03582526430936969</v>
+        <v>0.002791572690042914</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3424,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.004154899975726574</v>
+        <v>0.004174516387558446</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3451,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="BM16">
-        <v>0.04029624721972459</v>
+        <v>0.003304650033387968</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3472,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3480,7 +3459,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00228942959320045</v>
+        <v>0.002288171983253307</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3498,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.002284411416423254</v>
+        <v>0.002194579966580081</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3522,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002678069256226726</v>
+        <v>0.002636105614196347</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3546,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AC17">
-        <v>0.002672110171303806</v>
+        <v>0.002200570630729072</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3570,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.003246081071418975</v>
+        <v>0.003144623997882328</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -3594,13 +3573,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AU17">
-        <v>0.03582526430936969</v>
+        <v>0.00220932621679298</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3618,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.004154899975726574</v>
+        <v>0.003958253411779899</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3642,13 +3621,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="BM17">
-        <v>0.04029624721972459</v>
+        <v>0.002223335154495234</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3666,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3674,7 +3653,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00228942959320045</v>
+        <v>0.002288171983253307</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3692,37 +3671,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>0.00227300695727973</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
         <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.002678069256226726</v>
+        <v>0.002636105614196347</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -3740,37 +3695,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC18">
-        <v>0.002617938990372062</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18">
         <v>1</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.003246081071418975</v>
+        <v>0.003144623997882328</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -3788,37 +3719,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU18">
-        <v>0.03490666778861662</v>
-      </c>
-      <c r="AV18">
-        <v>1</v>
-      </c>
-      <c r="AW18">
-        <v>1</v>
-      </c>
-      <c r="AX18">
-        <v>1</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA18">
         <v>1</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.004154899975726574</v>
+        <v>0.003958253411779899</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3836,613 +3743,7 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>0</v>
-      </c>
-      <c r="BL18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BM18">
-        <v>0.03926301011152653</v>
-      </c>
-      <c r="BN18">
-        <v>1</v>
-      </c>
-      <c r="BO18">
-        <v>1</v>
-      </c>
-      <c r="BP18">
-        <v>1</v>
-      </c>
-      <c r="BQ18">
-        <v>0</v>
-      </c>
-      <c r="BR18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:71">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.00228942959320045</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19">
-        <v>0.002261602498136204</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19">
-        <v>0.002678069256226726</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC19">
-        <v>0.002563767809440318</v>
-      </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>2</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL19">
-        <v>0.003246081071418975</v>
-      </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>1</v>
-      </c>
-      <c r="AQ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU19">
-        <v>0.03398807126786355</v>
-      </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
-      <c r="AW19">
-        <v>1</v>
-      </c>
-      <c r="AX19">
-        <v>1</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>2</v>
-      </c>
-      <c r="BC19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD19">
-        <v>0.004154899975726574</v>
-      </c>
-      <c r="BE19">
-        <v>1</v>
-      </c>
-      <c r="BF19">
-        <v>1</v>
-      </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <v>1</v>
-      </c>
-      <c r="BI19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ19">
-        <v>0</v>
-      </c>
-      <c r="BL19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BM19">
-        <v>0.03822977300332845</v>
-      </c>
-      <c r="BN19">
-        <v>1</v>
-      </c>
-      <c r="BO19">
-        <v>1</v>
-      </c>
-      <c r="BP19">
-        <v>1</v>
-      </c>
-      <c r="BQ19">
-        <v>0</v>
-      </c>
-      <c r="BR19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:71">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.00228942959320045</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.002193175743275054</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T20">
-        <v>0.002678069256226726</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC20">
-        <v>0.002238740723849852</v>
-      </c>
-      <c r="AD20">
-        <v>1</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>8</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL20">
-        <v>0.003246081071418975</v>
-      </c>
-      <c r="AM20">
-        <v>1</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>1</v>
-      </c>
-      <c r="AQ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU20">
-        <v>0.02847649214334514</v>
-      </c>
-      <c r="AV20">
-        <v>1</v>
-      </c>
-      <c r="AW20">
-        <v>1</v>
-      </c>
-      <c r="AX20">
-        <v>1</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>8</v>
-      </c>
-      <c r="BC20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD20">
-        <v>0.004154899975726574</v>
-      </c>
-      <c r="BE20">
-        <v>1</v>
-      </c>
-      <c r="BF20">
-        <v>1</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
-        <v>1</v>
-      </c>
-      <c r="BI20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>0</v>
-      </c>
-      <c r="BL20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BM20">
-        <v>0.03203035035414006</v>
-      </c>
-      <c r="BN20">
-        <v>1</v>
-      </c>
-      <c r="BO20">
-        <v>1</v>
-      </c>
-      <c r="BP20">
-        <v>1</v>
-      </c>
-      <c r="BQ20">
-        <v>0</v>
-      </c>
-      <c r="BR20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:71">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.002278025134056925</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21">
-        <v>0.001839637509825775</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>39</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T21">
-        <v>0.002623898075294982</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC21">
-        <v>0.0005594341149657789</v>
-      </c>
-      <c r="AD21">
-        <v>1</v>
-      </c>
-      <c r="AE21">
-        <v>1</v>
-      </c>
-      <c r="AF21">
-        <v>1</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>39</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL21">
-        <v>0.003129404681719833</v>
-      </c>
-      <c r="AM21">
-        <v>1</v>
-      </c>
-      <c r="AN21">
-        <v>1</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>1</v>
-      </c>
-      <c r="AQ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>1</v>
-      </c>
-      <c r="AW21">
-        <v>1</v>
-      </c>
-      <c r="AX21">
-        <v>1</v>
-      </c>
-      <c r="AY21">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>39</v>
-      </c>
-      <c r="BC21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BD21">
-        <v>0.003938215251999598</v>
-      </c>
-      <c r="BE21">
-        <v>1</v>
-      </c>
-      <c r="BF21">
-        <v>1</v>
-      </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
-      <c r="BH21">
-        <v>1</v>
-      </c>
-      <c r="BI21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ21">
-        <v>1</v>
-      </c>
-      <c r="BL21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BM21">
-        <v>0</v>
-      </c>
-      <c r="BN21">
-        <v>1</v>
-      </c>
-      <c r="BO21">
-        <v>1</v>
-      </c>
-      <c r="BP21">
-        <v>1</v>
-      </c>
-      <c r="BQ21">
-        <v>0</v>
-      </c>
-      <c r="BR21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS21">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
